--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>193.753435403177</v>
+        <v>193.758725370321</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000000000000000000000000000000827285617571279</v>
+        <v>0.0000000000000000000000000000000000000000825122649174557</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4177.68804454713</v>
+        <v>4177.73080050301</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,7 +411,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1968.30201989464</v>
+        <v>1968.24287392593</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>193.758725370321</v>
+        <v>193.748574183173</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000000000000000000000000000000825122649174557</v>
+        <v>0.000000000000000000000000000000000000000082927827769872</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4177.73080050301</v>
+        <v>4177.66974871083</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,7 +411,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1968.24287392593</v>
+        <v>1968.22914910464</v>
       </c>
       <c r="C4" t="n">
         <v>12</v>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -32,7 +32,43 @@
     <t xml:space="preserve">season</t>
   </si>
   <si>
+    <t xml:space="preserve">length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day_night</t>
+  </si>
+  <si>
     <t xml:space="preserve">habitat_type:season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:season:length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:season:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:length:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">season:length:day_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habitat_type:season:length:day_night</t>
   </si>
 </sst>
 </file>
@@ -383,13 +419,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>193.748574183173</v>
+        <v>84.78774276261</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000082927827769872</v>
+        <v>0.0000000000000000168268952037243</v>
       </c>
     </row>
     <row r="3">
@@ -397,13 +433,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4177.66974871083</v>
+        <v>31.791892300358</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.000000578954057181146</v>
       </c>
     </row>
     <row r="4">
@@ -411,13 +447,181 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1968.22914910464</v>
+        <v>2.17781887118537</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.140012764067774</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>65.4392079502853</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0000000000000404023285817303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>419.041298153316</v>
+      </c>
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000349727223196716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.46945745134344</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.075818443192257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.02202919600533</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.388241162466469</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>76.1396917712486</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0000000000223610556311327</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>103.689354843691</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00000000000000000281640857090181</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.882059051648772</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.829755071728027</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>73.9655600013696</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00000000000756111626058715</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>92.7968813686353</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000000395979420761007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24.6280047359372</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0166874110907106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31.6771227555644</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000226400760352013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>43.854964813563</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0378799099043248</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -32,43 +32,19 @@
     <t xml:space="preserve">season</t>
   </si>
   <si>
-    <t xml:space="preserve">length</t>
-  </si>
-  <si>
     <t xml:space="preserve">day_night</t>
   </si>
   <si>
     <t xml:space="preserve">habitat_type:season</t>
   </si>
   <si>
-    <t xml:space="preserve">habitat_type:length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season:length</t>
-  </si>
-  <si>
     <t xml:space="preserve">habitat_type:day_night</t>
   </si>
   <si>
     <t xml:space="preserve">season:day_night</t>
   </si>
   <si>
-    <t xml:space="preserve">length:day_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_type:season:length</t>
-  </si>
-  <si>
     <t xml:space="preserve">habitat_type:season:day_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_type:length:day_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">season:length:day_night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">habitat_type:season:length:day_night</t>
   </si>
 </sst>
 </file>
@@ -419,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>84.78774276261</v>
+        <v>207.133081056651</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000000168268952037243</v>
+        <v>0.000000000000000000000000000000000000000000109904551627884</v>
       </c>
     </row>
     <row r="3">
@@ -433,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>31.791892300358</v>
+        <v>44.9557804044391</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000000578954057181146</v>
+        <v>0.000000000945510096305254</v>
       </c>
     </row>
     <row r="4">
@@ -447,13 +423,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2.17781887118537</v>
+        <v>1667.96395357593</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.140012764067774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -461,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>65.4392079502853</v>
+        <v>268.567726862871</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000000404023285817303</v>
+        <v>0.0000000000000000000000000000000000000000000000000181362979053718</v>
       </c>
     </row>
     <row r="6">
@@ -475,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>419.041298153316</v>
+        <v>149.141553716142</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000349727223196716</v>
+        <v>0.0000000000000000000000000846626344293372</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>8.46945745134344</v>
+        <v>144.247607235722</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.075818443192257</v>
+        <v>0.0000000000000000000000000136757646310861</v>
       </c>
     </row>
     <row r="8">
@@ -503,125 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>3.02202919600533</v>
+        <v>122.286658891661</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0.388241162466469</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>76.1396917712486</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0000000000223610556311327</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>103.689354843691</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.00000000000000000281640857090181</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.882059051648772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.829755071728027</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>73.9655600013696</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.00000000000756111626058715</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>92.7968813686353</v>
-      </c>
-      <c r="C13" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.000000395979420761007</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24.6280047359372</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0166874110907106</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>31.6771227555644</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.000226400760352013</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>43.854964813563</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0378799099043248</v>
+        <v>0.0000000000132162470534377</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>207.133081056651</v>
+        <v>207.316926095507</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000000109904551627884</v>
+        <v>0.000000000000000000000000000000000000000000100340404728866</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>44.9557804044391</v>
+        <v>44.8659925864483</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000000000945510096305254</v>
+        <v>0.000000000987978216148026</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1667.96395357593</v>
+        <v>1665.54589547028</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>268.567726862871</v>
+        <v>267.455553278609</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000181362979053718</v>
+        <v>0.0000000000000000000000000000000000000000000000000309821676830582</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>149.141553716142</v>
+        <v>149.330142220592</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000000000000000000000000846626344293372</v>
+        <v>0.0000000000000000000000000775257765445659</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>144.247607235722</v>
+        <v>143.019684211909</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000000000000000000000000136757646310861</v>
+        <v>0.0000000000000000000000000245347438577342</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>122.286658891661</v>
+        <v>123.832365414437</v>
       </c>
       <c r="C8" t="n">
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0000000000132162470534377</v>
+        <v>0.00000000000747450162815215</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>207.316926095507</v>
+        <v>402.213595695805</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000000000000000000000000000000000000000000100340404728866</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000924715937244439</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>44.8659925864483</v>
+        <v>1097.0773183811</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000000000987978216148026</v>
+        <v>1.56726057069067e-237</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1665.54589547028</v>
+        <v>1663.51474739775</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>267.455553278609</v>
+        <v>592.590893772072</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000309821676830582</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000404885212428199</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>149.330142220592</v>
+        <v>152.891334737859</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000000000000000000000000775257765445659</v>
+        <v>0.0000000000000000000000000146762662755666</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>143.019684211909</v>
+        <v>142.05602722908</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000000000000000000000000245347438577342</v>
+        <v>0.0000000000000000000000000388067798537248</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>123.832365414437</v>
+        <v>108.781320209598</v>
       </c>
       <c r="C8" t="n">
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00000000000747450162815215</v>
+        <v>0.00000000171513043195422</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
+++ b/results/accel-glmm-results/habitat-season/np/glmm_main_effects_hab_season_np.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>402.213595695805</v>
+        <v>402.213595671356</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000924715937244439</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000924715948492949</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1097.0773183811</v>
+        <v>1097.07731838783</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.56726057069067e-237</v>
+        <v>1.56726056542125e-237</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1663.51474739775</v>
+        <v>1663.51474737484</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>592.590893772072</v>
+        <v>592.590893724447</v>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000404885212428199</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000004048852219075</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>152.891334737859</v>
+        <v>152.891334726022</v>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000000000000000000000000146762662755666</v>
+        <v>0.0000000000000000000000000146762663568228</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>142.05602722908</v>
+        <v>142.056027216446</v>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000000000000000000000000388067798537248</v>
+        <v>0.0000000000000000000000000388067800869672</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>108.781320209598</v>
+        <v>108.781320209292</v>
       </c>
       <c r="C8" t="n">
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00000000171513043195422</v>
+        <v>0.0000000017151304321387</v>
       </c>
     </row>
   </sheetData>
